--- a/dtt-project/time log/DTT-Assessment-Hour-Log.xlsx
+++ b/dtt-project/time log/DTT-Assessment-Hour-Log.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amberwessels/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{482508C9-200F-4FFD-A1C2-3936CFF71E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D1238D9-DA1A-4B0F-A6B2-5BACD100D779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2060" yWindow="500" windowWidth="34620" windowHeight="19820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <r>
       <rPr>
@@ -123,6 +123,18 @@
     <t>Responsive style</t>
   </si>
   <si>
+    <t xml:space="preserve">change UI depending on feedback </t>
+  </si>
+  <si>
+    <t>Fix format dependenig on feedback but get problems to aplly DRY principle.</t>
+  </si>
+  <si>
+    <t>change logic depending on feedback , had a problem with upload image and discover the problem from image</t>
+  </si>
+  <si>
+    <t>improve components structure ,Home page , make sperate file components for sorting and search, think about solution for problem</t>
+  </si>
+  <si>
     <t>Total amount of hours</t>
   </si>
 </sst>
@@ -133,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -203,6 +215,12 @@
       <color indexed="8"/>
       <name val="Open Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -419,7 +437,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -467,6 +485,9 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1728,7 +1749,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5" defaultRowHeight="15" customHeight="1"/>
@@ -1910,33 +1931,57 @@
     </row>
     <row r="12" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="5"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="15"/>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18">
+        <v>45169</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>22</v>
+      </c>
       <c r="E12" s="19"/>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="5"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="15"/>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="18">
+        <v>45170</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="E13" s="19"/>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="5"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="15"/>
+      <c r="B14" s="17">
+        <v>2</v>
+      </c>
+      <c r="C14" s="18">
+        <v>45171</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>24</v>
+      </c>
       <c r="E14" s="19"/>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="15"/>
+      <c r="B15" s="17">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18">
+        <v>45172</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="4"/>
     </row>
@@ -2030,11 +2075,11 @@
     </row>
     <row r="27" spans="1:6" ht="16.350000000000001" customHeight="1">
       <c r="A27" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B27" s="14">
         <f>SUMIF(E4:E25,"&lt;&gt;x",B4:B25)</f>
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
